--- a/dataimport/src/test/resources/test_support/input_data_files/xlsx/orders_with_customers_and_lines.xlsx
+++ b/dataimport/src/test/resources/test_support/input_data_files/xlsx/orders_with_customers_and_lines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Customer Name</t>
   </si>
@@ -56,24 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mike Spencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m.spencer@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345-67890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outback Power Nano-Carbon Battery 12V</t>
   </si>
   <si>
     <r>
@@ -96,6 +78,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">#001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345-67890</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fullriver Sealed Battery 6V</t>
   </si>
   <si>
@@ -112,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Credit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outback Power Nano-Carbon Battery 12V</t>
   </si>
   <si>
     <t xml:space="preserve">Hildred Ellis</t>
@@ -224,6 +221,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,10 +235,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -257,20 +254,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.06"/>
@@ -313,133 +310,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>44239.5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>44239.5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>4</v>
+      <c r="K2" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>44239.5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>44239.5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>44278.75</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>44278.75</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>44278.75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>44278.75</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44372.7083333333</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>44372.7083333333</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>44372.7083333333</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>44372.7083333333</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>4</v>
       </c>
     </row>
